--- a/excel/GameData.xlsx
+++ b/excel/GameData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560C7EC4-5B41-4689-B71C-8797A4103DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE3383-FE84-4B50-A44E-0383B64B7697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1740" windowWidth="23715" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EnumData" sheetId="1" r:id="rId1"/>
+    <sheet name="GameSettingData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/excel/GameData.xlsx
+++ b/excel/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE3383-FE84-4B50-A44E-0383B64B7697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE6CF8-375F-4E5C-B631-9E1A9342C3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1740" windowWidth="23715" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23430" yWindow="1995" windowWidth="23715" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameSettingData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Value</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -58,6 +58,157 @@
   </si>
   <si>
     <t>게임 시간 1시간 = 현실 시간 몇 초인지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartUserHp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 시 주어지는 디폴트 hp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최대 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">hp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한도</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrainsPerLunite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LunitesPerSolari</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartUserLunite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 시 주어지는 디폴트 은화 개수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaximumUserHp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaximumSolariCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보유 가능한 금화 개수</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>금화 하나 당 은화 개수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나 당 동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -65,10 +216,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -97,6 +249,74 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -213,33 +433,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,38 +688,38 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="14"/>
+    <col min="1" max="1" width="12.5703125" style="10"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -504,35 +733,92 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="3"/>
+    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="21">
+        <v>100</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>300</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="24">
+        <v>99999999</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/excel/GameData.xlsx
+++ b/excel/GameData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE6CF8-375F-4E5C-B631-9E1A9342C3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE3496B-651C-3A43-BC54-798EA7548745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23430" yWindow="1995" windowWidth="23715" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GameSettingData" sheetId="1" r:id="rId1"/>
+    <sheet name="GameSetting" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -176,6 +176,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -217,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -236,12 +237,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -254,6 +257,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,16 +439,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -461,10 +465,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -688,23 +691,23 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="10"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="10"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="12"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -718,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -733,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
@@ -747,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -761,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
@@ -775,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -789,7 +792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -803,21 +806,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>99999999</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13">
       <c r="F13" s="4"/>
     </row>
   </sheetData>

--- a/excel/GameData.xlsx
+++ b/excel/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE3496B-651C-3A43-BC54-798EA7548745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6638DF-CBDB-D843-8C54-4BD194EB621C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10900" yWindow="3460" windowWidth="18500" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameSetting" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Value</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -209,6 +209,116 @@
         <charset val="129"/>
       </rPr>
       <t>개수</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartGameTimeSeconds</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndGameTimeSeconds</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하루</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하루</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -221,7 +331,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -320,6 +430,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -443,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -469,6 +593,11 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -691,7 +820,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -820,6 +949,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="26">
+        <v>28800</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>86400</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" ht="13">
       <c r="F13" s="4"/>
     </row>

--- a/excel/GameData.xlsx
+++ b/excel/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6638DF-CBDB-D843-8C54-4BD194EB621C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5428CAF3-4A2E-C140-92FF-1B017D1BA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10900" yWindow="3460" windowWidth="18500" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Value</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -320,6 +320,103 @@
       </rPr>
       <t>시간</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUpRate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빠르게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달릴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배수</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -577,7 +674,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -595,9 +691,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -820,24 +918,24 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="10"/>
+    <col min="1" max="1" width="12.5" style="9"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="13">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -851,7 +949,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="13">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -866,49 +964,49 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>100</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>300</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -917,12 +1015,12 @@
       <c r="C7" s="2">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -931,50 +1029,64 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>99999999</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>28800</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C11">
         <v>86400</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>1.6</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13">

--- a/excel/GameData.xlsx
+++ b/excel/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5428CAF3-4A2E-C140-92FF-1B017D1BA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E75D6CF-7B11-C74D-B953-A09CB6A81B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10900" yWindow="3460" windowWidth="18500" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -693,9 +693,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -918,13 +917,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5" style="9"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -935,7 +935,7 @@
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="13">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1079,17 +1079,19 @@
       <c r="A12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C12">
         <v>1.6</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13">
+      <c r="A13" s="24"/>
+      <c r="B13" s="29"/>
       <c r="F13" s="4"/>
     </row>
   </sheetData>

--- a/excel/GameData.xlsx
+++ b/excel/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E75D6CF-7B11-C74D-B953-A09CB6A81B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412BA156-F2DD-CB41-A6A3-83830360B237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10900" yWindow="3460" windowWidth="18500" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Value</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -417,6 +417,106 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinSlimeGaugePer10Minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSlimeGaugePer10Minutes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분마다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬라임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼센트</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +794,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -914,10 +1014,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1089,10 +1189,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13">
-      <c r="A13" s="24"/>
-      <c r="B13" s="29"/>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/excel/GameData.xlsx
+++ b/excel/GameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412BA156-F2DD-CB41-A6A3-83830360B237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64FAF82-687C-B94F-984E-76674553E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10900" yWindow="3460" windowWidth="18500" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -794,7 +794,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1017,7 +1016,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1197,9 +1196,9 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="29" t="s">
+        <v>0.1736</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="4"/>
@@ -1212,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0.14879999999999999</v>
       </c>
     </row>
   </sheetData>
